--- a/doc/spec/parameter_definition.xlsx
+++ b/doc/spec/parameter_definition.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
@@ -16,7 +16,7 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1593243702" val="934" rev="123" revOS="4"/>
+      <pm:revision xmlns:pm="smNativeData" day="1593243702" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
       <pm:docPrefs xmlns:pm="smNativeData" id="1593243702" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
       <pm:compatibility xmlns:pm="smNativeData" id="1593243702" overlapCells="1"/>
       <pm:defCurrency xmlns:pm="smNativeData" id="1593243702"/>
@@ -665,7 +665,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -677,8 +706,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A3" zoomScale="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
